--- a/FALEC-w1-core-web/WebContent/reportes/FALECPV-PagosEmitidos.xlsx
+++ b/FALEC-w1-core-web/WebContent/reportes/FALECPV-PagosEmitidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/projects/gitrepositorio/FacturaElectronica-App/FALEC-w1-core-web/WebContent/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F567DC1C-A7C1-9147-82F8-CF0589BA55B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2147F98-33F5-A14C-A4B6-9219AF5EDC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7580" windowWidth="42320" windowHeight="20280" xr2:uid="{E9788733-D204-D84A-A824-443E01B2DF94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ESTABLECIMEINTO :</t>
   </si>
@@ -45,9 +45,6 @@
     <t>RUC</t>
   </si>
   <si>
-    <t>VALOR</t>
-  </si>
-  <si>
     <t>CAMBIO</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
   </si>
   <si>
     <t>NUM DOCUMENTO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>RETENCIÓN</t>
+  </si>
+  <si>
+    <t>A PAGAR</t>
+  </si>
+  <si>
+    <t>PAGO</t>
   </si>
 </sst>
 </file>
@@ -488,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32A76B9-2613-7147-BFF0-D21843D4C7F8}">
-  <dimension ref="A2:L8"/>
+  <dimension ref="A2:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,17 +510,17 @@
     <col min="4" max="4" width="39.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="36.83203125" customWidth="1"/>
+    <col min="7" max="10" width="34.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -524,8 +533,11 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -534,7 +546,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -543,7 +555,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -552,16 +564,16 @@
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -573,33 +585,42 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
